--- a/MainTop/размеры/размеры2_updated_print_sorted_updated.xlsx
+++ b/MainTop/размеры/размеры2_updated_print_sorted_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\размеры\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8631F8-12A6-4B52-B6DB-C1D838E087FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC3CF0-B92E-4BAA-BED4-AEA7EC9CCAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
-    <t>артикул</t>
-  </si>
-  <si>
     <t>место</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>б92</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,274 +636,274 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
